--- a/data/BERN_Unlimited_Int-BusinessReview2020.xlsx
+++ b/data/BERN_Unlimited_Int-BusinessReview2020.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Austin_CustomReports\CustomerReports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\OCEANAIR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85365D77-9B92-4A8C-B8AA-5ED038FA3C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F1CC66-9B74-43D1-BD10-DF672C540AAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AW - Customer Quartly Reports  " sheetId="1" r:id="rId1"/>
+    <sheet name="YTD2020_Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="273">
   <si>
     <t>FILE NO</t>
   </si>
@@ -55,9 +55,6 @@
     <t>ACTUAL ARRIVAL DATE</t>
   </si>
   <si>
-    <t>DO DELIVERY ACTUAL DATE</t>
-  </si>
-  <si>
     <t>CUSTOMER NAME</t>
   </si>
   <si>
@@ -121,54 +118,108 @@
     <t>TOTAL DUTY BILLED</t>
   </si>
   <si>
-    <t>Quarter</t>
-  </si>
-  <si>
     <t>1115204</t>
   </si>
   <si>
     <t>OE</t>
   </si>
   <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED C/O OCEANAIR WAREHO</t>
+  </si>
+  <si>
+    <t>ARIES COMMERICAL SA</t>
+  </si>
+  <si>
+    <t>PORT EVERGLADES                    BUENOS AIRES</t>
+  </si>
+  <si>
+    <t>PORT EVERGLADES</t>
+  </si>
+  <si>
+    <t>BUENOS AIRES</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>BERN UNLIMITED C/O OCEANAIR WAREHO</t>
-  </si>
-  <si>
-    <t>ARIES COMMERICAL SA</t>
-  </si>
-  <si>
-    <t>PORT EVERGLADES                    BUENOS AIRES</t>
-  </si>
-  <si>
-    <t>PORT EVERGLADES</t>
-  </si>
-  <si>
-    <t>BUENOS AIRES</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>1230595-01</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>COHESION AIR FREIGHT (HK) LTD. EX</t>
+  </si>
+  <si>
+    <t>YANTIAN                            BOSTON, MA</t>
+  </si>
+  <si>
+    <t>YANTIAN</t>
+  </si>
+  <si>
+    <t>BOSTON, MA</t>
+  </si>
+  <si>
+    <t>40HQ</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>1230595-01</t>
+    <t>1230712-01</t>
   </si>
   <si>
     <t>OI</t>
   </si>
   <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>COHESION FREIGHT (HK) LTD.</t>
+  </si>
+  <si>
+    <t>YANTIAN                            LOS ANGELES</t>
+  </si>
+  <si>
+    <t>YANTIAN</t>
+  </si>
+  <si>
+    <t>LOS ANGELES</t>
+  </si>
+  <si>
+    <t>40DV/40HQ</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>1230720-01</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
     <t>BERN UNLIMITED INC</t>
   </si>
   <si>
@@ -178,6 +229,39 @@
     <t>BERN UNLIMITED INC</t>
   </si>
   <si>
+    <t>COHESION FREIGHT (HK) LTD.</t>
+  </si>
+  <si>
+    <t>YANTIAN                            BOSTON, MA</t>
+  </si>
+  <si>
+    <t>YANTIAN</t>
+  </si>
+  <si>
+    <t>BOSTON, MA</t>
+  </si>
+  <si>
+    <t>40HQ/40HQ/40HQ/40HQ</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1230764-01</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
     <t>COHESION AIR FREIGHT (HK) LTD. EX</t>
   </si>
   <si>
@@ -190,24 +274,150 @@
     <t>BOSTON, MA</t>
   </si>
   <si>
+    <t>40HQ/40HQ</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1230804-01</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>COHESION FREIGHT (HK) LTD.</t>
+  </si>
+  <si>
+    <t>YANTIAN                            BOSTON, MA</t>
+  </si>
+  <si>
+    <t>YANTIAN</t>
+  </si>
+  <si>
+    <t>BOSTON, MA</t>
+  </si>
+  <si>
+    <t>40HQ/40HQ</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1231104-01</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>COHESION FREIGHT (HK) LTD.</t>
+  </si>
+  <si>
+    <t>YANTIAN                            BOSTON, MA</t>
+  </si>
+  <si>
+    <t>YANTIAN</t>
+  </si>
+  <si>
+    <t>BOSTON, MA</t>
+  </si>
+  <si>
+    <t>40HQ/20'</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1231170-01</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>COHESION AIR FREIGHT (HK) LTD. EX</t>
+  </si>
+  <si>
+    <t>YANTIAN                            BOSTON, MA</t>
+  </si>
+  <si>
+    <t>YANTIAN</t>
+  </si>
+  <si>
+    <t>BOSTON, MA</t>
+  </si>
+  <si>
     <t>40HQ</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>1230712-01</t>
+    <t>1231234-01</t>
   </si>
   <si>
     <t>OI</t>
   </si>
   <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>COHESION AIR FREIGHT (HK) LTD. EX</t>
+  </si>
+  <si>
+    <t>YANTIAN                            BOSTON, MA</t>
+  </si>
+  <si>
+    <t>YANTIAN</t>
+  </si>
+  <si>
+    <t>BOSTON, MA</t>
+  </si>
+  <si>
+    <t>20'</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>1231419-01</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
     <t>BERN UNLIMITED INC</t>
   </si>
   <si>
@@ -217,36 +427,63 @@
     <t>BERN UNLIMITED INC</t>
   </si>
   <si>
+    <t>COHESION AIR FREIGHT (HK) LTD. EX</t>
+  </si>
+  <si>
+    <t>YANTIAN                            BOSTON, MA</t>
+  </si>
+  <si>
+    <t>YANTIAN</t>
+  </si>
+  <si>
+    <t>BOSTON, MA</t>
+  </si>
+  <si>
+    <t>40HQ</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1231533-01</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
     <t>COHESION FREIGHT (HK) LTD.</t>
   </si>
   <si>
-    <t>YANTIAN                            LOS ANGELES</t>
+    <t>YANTIAN                            BOSTON, MA</t>
   </si>
   <si>
     <t>YANTIAN</t>
   </si>
   <si>
-    <t>LOS ANGELES</t>
-  </si>
-  <si>
-    <t>40DV/40HQ</t>
+    <t>BOSTON, MA</t>
+  </si>
+  <si>
+    <t>40HQ</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>1230720-01</t>
+    <t>1231639-01</t>
   </si>
   <si>
     <t>OI</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2/26/2020</t>
-  </si>
-  <si>
     <t>BERN UNLIMITED INC</t>
   </si>
   <si>
@@ -268,24 +505,18 @@
     <t>BOSTON, MA</t>
   </si>
   <si>
-    <t>40HQ/40HQ/40HQ/40HQ</t>
+    <t>20'</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>1230764-01</t>
+    <t>1231716-01</t>
   </si>
   <si>
     <t>OI</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3/04/2020</t>
-  </si>
-  <si>
     <t>BERN UNLIMITED INC</t>
   </si>
   <si>
@@ -313,18 +544,12 @@
     <t/>
   </si>
   <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>1230804-01</t>
+    <t>1231774-01</t>
   </si>
   <si>
     <t>OI</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3/17/2020</t>
-  </si>
-  <si>
     <t>BERN UNLIMITED INC</t>
   </si>
   <si>
@@ -334,6 +559,39 @@
     <t>BERN UNLIMITED INC</t>
   </si>
   <si>
+    <t>COHESION AIR FREIGHT (HK) LTD. EX</t>
+  </si>
+  <si>
+    <t>YANTIAN                            BOSTON, MA</t>
+  </si>
+  <si>
+    <t>YANTIAN</t>
+  </si>
+  <si>
+    <t>BOSTON, MA</t>
+  </si>
+  <si>
+    <t>40HQ</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1231958-01</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
     <t>COHESION FREIGHT (HK) LTD.</t>
   </si>
   <si>
@@ -346,30 +604,90 @@
     <t>BOSTON, MA</t>
   </si>
   <si>
-    <t>40HQ/40HQ</t>
+    <t>40HQ</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>1231104-01</t>
+    <t>1232041-01</t>
   </si>
   <si>
     <t>OI</t>
   </si>
   <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>COHESION FREIGHT (HK) LTD.</t>
+  </si>
+  <si>
+    <t>YANTIAN                            BOSTON, MA</t>
+  </si>
+  <si>
+    <t>YANTIAN</t>
+  </si>
+  <si>
+    <t>BOSTON, MA</t>
+  </si>
+  <si>
+    <t>40HQ</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>1232117-01</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
     <t>BERN UNLIMITED INC</t>
   </si>
   <si>
     <t>LUCKY BELL PLASTIC FACTORY LTD</t>
   </si>
   <si>
+    <t>EURODISLOG</t>
+  </si>
+  <si>
+    <t>OCEANAIR, INC</t>
+  </si>
+  <si>
+    <t>YANTIAN                            LE HAVRE</t>
+  </si>
+  <si>
+    <t>YANTIAN</t>
+  </si>
+  <si>
+    <t>LE HAVRE</t>
+  </si>
+  <si>
+    <t>40HQ</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1232216-01</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
+  </si>
+  <si>
     <t>BERN UNLIMITED INC</t>
   </si>
   <si>
@@ -385,24 +703,51 @@
     <t>BOSTON, MA</t>
   </si>
   <si>
-    <t>40HQ/20'</t>
+    <t>40HQ</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>1231170-01</t>
+    <t>1232305-01</t>
   </si>
   <si>
     <t>OI</t>
   </si>
   <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
+  </si>
+  <si>
+    <t>COHESION FREIGHT (HK) LTD.</t>
+  </si>
+  <si>
+    <t>YANTIAN                            BOSTON, MA</t>
+  </si>
+  <si>
+    <t>YANTIAN</t>
+  </si>
+  <si>
+    <t>BOSTON, MA</t>
+  </si>
+  <si>
+    <t>40HQ/40HQ/40HQ</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>1232397-01</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
     <t>BERN UNLIMITED INC</t>
   </si>
   <si>
@@ -412,148 +757,64 @@
     <t>BERN UNLIMITED INC</t>
   </si>
   <si>
-    <t>COHESION AIR FREIGHT (HK) LTD. EX</t>
-  </si>
-  <si>
-    <t>YANTIAN                            BOSTON, MA</t>
+    <t>COHESION FREIGHT (HK) LTD.</t>
+  </si>
+  <si>
+    <t>YANTIAN                            LONG BEACH</t>
   </si>
   <si>
     <t>YANTIAN</t>
   </si>
   <si>
-    <t>BOSTON, MA</t>
-  </si>
-  <si>
-    <t>40HQ</t>
+    <t>LONG BEACH</t>
+  </si>
+  <si>
+    <t>20'</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>1231234-01</t>
-  </si>
-  <si>
-    <t>OI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6/11/2020</t>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>COHESION AIR FREIGHT (HK) LTD. EX</t>
-  </si>
-  <si>
-    <t>YANTIAN                            BOSTON, MA</t>
-  </si>
-  <si>
-    <t>YANTIAN</t>
-  </si>
-  <si>
-    <t>BOSTON, MA</t>
-  </si>
-  <si>
-    <t>20'</t>
+    <t>150112150</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>1231419-01</t>
-  </si>
-  <si>
-    <t>OI</t>
+    <t>BERN UNLIMITED INC</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>COHESION AIR FREIGHT (HK) LTD. EX</t>
-  </si>
-  <si>
-    <t>YANTIAN                            BOSTON, MA</t>
-  </si>
-  <si>
-    <t>YANTIAN</t>
-  </si>
-  <si>
-    <t>BOSTON, MA</t>
-  </si>
-  <si>
-    <t>40HQ</t>
+    <t xml:space="preserve">                                   4102</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>1231533-01</t>
-  </si>
-  <si>
-    <t>OI</t>
+    <t>4102</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>COHESION FREIGHT (HK) LTD.</t>
-  </si>
-  <si>
-    <t>YANTIAN                            BOSTON, MA</t>
-  </si>
-  <si>
-    <t>YANTIAN</t>
-  </si>
-  <si>
-    <t>BOSTON, MA</t>
-  </si>
-  <si>
-    <t>40HQ</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>1231639-01</t>
-  </si>
-  <si>
-    <t>OI</t>
+    <t>150115109</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>BERN UNLIMITED INC</t>
   </si>
   <si>
     <t/>
@@ -562,427 +823,28 @@
     <t>BERN UNLIMITED INC</t>
   </si>
   <si>
-    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>COHESION FREIGHT (HK) LTD.</t>
-  </si>
-  <si>
-    <t>YANTIAN                            BOSTON, MA</t>
-  </si>
-  <si>
-    <t>YANTIAN</t>
-  </si>
-  <si>
-    <t>BOSTON, MA</t>
-  </si>
-  <si>
-    <t>20'</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>1231716-01</t>
-  </si>
-  <si>
-    <t>OI</t>
+    <t>LE HAVRE, FRANCE                   4601</t>
+  </si>
+  <si>
+    <t>LE HAVRE, FRANCE</t>
+  </si>
+  <si>
+    <t>4601</t>
+  </si>
+  <si>
+    <t>LCL/BULK</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>COHESION AIR FREIGHT (HK) LTD. EX</t>
-  </si>
-  <si>
-    <t>YANTIAN                            BOSTON, MA</t>
-  </si>
-  <si>
-    <t>YANTIAN</t>
-  </si>
-  <si>
-    <t>BOSTON, MA</t>
-  </si>
-  <si>
-    <t>40HQ/40HQ</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>1231774-01</t>
-  </si>
-  <si>
-    <t>OI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>COHESION AIR FREIGHT (HK) LTD. EX</t>
-  </si>
-  <si>
-    <t>YANTIAN                            BOSTON, MA</t>
-  </si>
-  <si>
-    <t>YANTIAN</t>
-  </si>
-  <si>
-    <t>BOSTON, MA</t>
-  </si>
-  <si>
-    <t>40HQ</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>1231958-01</t>
-  </si>
-  <si>
-    <t>OI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>COHESION FREIGHT (HK) LTD.</t>
-  </si>
-  <si>
-    <t>YANTIAN                            BOSTON, MA</t>
-  </si>
-  <si>
-    <t>YANTIAN</t>
-  </si>
-  <si>
-    <t>BOSTON, MA</t>
-  </si>
-  <si>
-    <t>40HQ</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>1232041-01</t>
-  </si>
-  <si>
-    <t>OI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>COHESION FREIGHT (HK) LTD.</t>
-  </si>
-  <si>
-    <t>YANTIAN                            BOSTON, MA</t>
-  </si>
-  <si>
-    <t>YANTIAN</t>
-  </si>
-  <si>
-    <t>BOSTON, MA</t>
-  </si>
-  <si>
-    <t>40HQ</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>1232117-01</t>
-  </si>
-  <si>
-    <t>OI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
-  </si>
-  <si>
-    <t>EURODISLOG</t>
-  </si>
-  <si>
-    <t>OCEANAIR, INC</t>
-  </si>
-  <si>
-    <t>YANTIAN                            LE HAVRE</t>
-  </si>
-  <si>
-    <t>YANTIAN</t>
-  </si>
-  <si>
-    <t>LE HAVRE</t>
-  </si>
-  <si>
-    <t>40HQ</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>1232216-01</t>
-  </si>
-  <si>
-    <t>OI</t>
-  </si>
-  <si>
-    <t>10/30/2020</t>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>COHESION FREIGHT (HK) LTD.</t>
-  </si>
-  <si>
-    <t>YANTIAN                            BOSTON, MA</t>
-  </si>
-  <si>
-    <t>YANTIAN</t>
-  </si>
-  <si>
-    <t>BOSTON, MA</t>
-  </si>
-  <si>
-    <t>40HQ</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>1232305-01</t>
-  </si>
-  <si>
-    <t>OI</t>
-  </si>
-  <si>
-    <t>11/09/2020,11/04/2020</t>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>COHESION FREIGHT (HK) LTD.</t>
-  </si>
-  <si>
-    <t>YANTIAN                            BOSTON, MA</t>
-  </si>
-  <si>
-    <t>YANTIAN</t>
-  </si>
-  <si>
-    <t>BOSTON, MA</t>
-  </si>
-  <si>
-    <t>40HQ/40HQ/40HQ</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>1232397-01</t>
-  </si>
-  <si>
-    <t>OI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>LUCKY BELL PLASTIC FACTORY LTD</t>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t>COHESION FREIGHT (HK) LTD.</t>
-  </si>
-  <si>
-    <t>YANTIAN                            LONG BEACH</t>
-  </si>
-  <si>
-    <t>YANTIAN</t>
-  </si>
-  <si>
-    <t>LONG BEACH</t>
-  </si>
-  <si>
-    <t>20'</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>150112150</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                   4102</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>4102</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0 - QTR</t>
-  </si>
-  <si>
-    <t>150115109</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8/28/2020</t>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>BERN UNLIMITED INC</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>LE HAVRE, FRANCE                   4601</t>
-  </si>
-  <si>
-    <t>LE HAVRE, FRANCE</t>
-  </si>
-  <si>
-    <t>4601</t>
-  </si>
-  <si>
-    <t>LCL/BULK</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0 - QTR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(\$* ###0.00_);_(\$* \(###0.00\);_(\$* \-??_);_(@_)"/>
   </numFmts>
@@ -1106,7 +968,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B1A2158A-A85A-4E56-9350-CB25DAEBF05B}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1415,12 +1279,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH23"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="BN1" sqref="BN1"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1435,29 +1299,28 @@
     <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:33" ht="34.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1554,16 +1417,11 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="1"/>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="B2" s="4">
         <v>43943</v>
@@ -1575,7 +1433,7 @@
         <v>2020</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" s="4">
         <v>43943</v>
@@ -1592,46 +1450,46 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="2">
-        <v>1</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>44</v>
+      <c r="V2" s="2">
+        <v>5</v>
       </c>
       <c r="W2" s="2">
-        <v>5</v>
+        <v>633.221</v>
       </c>
       <c r="X2" s="2">
-        <v>633.221</v>
-      </c>
-      <c r="Y2" s="2">
         <v>0</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>350</v>
       </c>
       <c r="Z2" s="3">
         <v>350</v>
@@ -1640,30 +1498,25 @@
         <v>350</v>
       </c>
       <c r="AB2" s="3">
-        <v>350</v>
+        <v>253.13</v>
       </c>
       <c r="AC2" s="3">
-        <v>253.13</v>
-      </c>
-      <c r="AD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
         <v>0</v>
       </c>
       <c r="AE2" s="2">
         <v>0</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2" s="3">
         <v>0</v>
       </c>
-      <c r="AG2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AG2" s="2"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:33">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4">
         <v>43859</v>
@@ -1675,7 +1528,7 @@
         <v>2020</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F3" s="4">
         <v>43823</v>
@@ -1696,78 +1549,73 @@
         <v>43863</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" s="2">
-        <v>1</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>57</v>
+      <c r="V3" s="2">
+        <v>323</v>
       </c>
       <c r="W3" s="2">
-        <v>323</v>
+        <v>2950</v>
       </c>
       <c r="X3" s="2">
         <v>2950</v>
       </c>
-      <c r="Y3" s="2">
-        <v>2950</v>
+      <c r="Y3" s="3">
+        <v>11663.28</v>
       </c>
       <c r="Z3" s="3">
+        <v>4098.78</v>
+      </c>
+      <c r="AA3" s="3">
         <v>11663.28</v>
       </c>
-      <c r="AA3" s="3">
-        <v>4098.78</v>
-      </c>
       <c r="AB3" s="3">
-        <v>11663.28</v>
+        <v>10801.33</v>
       </c>
       <c r="AC3" s="3">
-        <v>10801.33</v>
-      </c>
-      <c r="AD3" s="3">
         <v>7564.5</v>
       </c>
+      <c r="AD3" s="2">
+        <v>63.04</v>
+      </c>
       <c r="AE3" s="2">
-        <v>63.04</v>
-      </c>
-      <c r="AF3" s="2">
         <v>174.69</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AF3" s="3">
         <v>7802.23</v>
       </c>
-      <c r="AH3" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:33">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4">
         <v>43851</v>
@@ -1779,7 +1627,7 @@
         <v>2020</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F4" s="4">
         <v>43836</v>
@@ -1800,78 +1648,73 @@
         <v>43852</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="S4" s="2">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T4" s="2">
-        <v>2</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>70</v>
+      <c r="V4" s="2">
+        <v>676</v>
       </c>
       <c r="W4" s="2">
-        <v>676</v>
+        <v>6308</v>
       </c>
       <c r="X4" s="2">
         <v>6308</v>
       </c>
-      <c r="Y4" s="2">
-        <v>6308</v>
+      <c r="Y4" s="3">
+        <v>24836.13</v>
       </c>
       <c r="Z4" s="3">
+        <v>6609.78</v>
+      </c>
+      <c r="AA4" s="3">
         <v>24836.13</v>
       </c>
-      <c r="AA4" s="3">
-        <v>6609.78</v>
-      </c>
       <c r="AB4" s="3">
-        <v>24836.13</v>
+        <v>23542.03</v>
       </c>
       <c r="AC4" s="3">
-        <v>23542.03</v>
-      </c>
-      <c r="AD4" s="3">
         <v>18226.349999999999</v>
       </c>
+      <c r="AD4" s="2">
+        <v>151.88999999999999</v>
+      </c>
       <c r="AE4" s="2">
-        <v>151.88999999999999</v>
-      </c>
-      <c r="AF4" s="2">
         <v>420.91</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AF4" s="3">
         <v>18799.150000000001</v>
       </c>
-      <c r="AH4" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="AG4" s="2"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:33">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4">
         <v>43881</v>
@@ -1883,7 +1726,7 @@
         <v>2020</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F5" s="4">
         <v>43837</v>
@@ -1904,78 +1747,73 @@
         <v>43882</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="2">
+        <v>4</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T5" s="2">
-        <v>4</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>83</v>
+      <c r="V5" s="2">
+        <v>1376</v>
       </c>
       <c r="W5" s="2">
-        <v>1376</v>
+        <v>13150</v>
       </c>
       <c r="X5" s="2">
         <v>13150</v>
       </c>
-      <c r="Y5" s="2">
-        <v>13150</v>
+      <c r="Y5" s="3">
+        <v>32750.01</v>
       </c>
       <c r="Z5" s="3">
+        <v>15927.58</v>
+      </c>
+      <c r="AA5" s="3">
         <v>32750.01</v>
       </c>
-      <c r="AA5" s="3">
-        <v>15927.58</v>
-      </c>
       <c r="AB5" s="3">
-        <v>32750.01</v>
+        <v>30698.959999999999</v>
       </c>
       <c r="AC5" s="3">
-        <v>30698.959999999999</v>
-      </c>
-      <c r="AD5" s="3">
         <v>16822.43</v>
       </c>
+      <c r="AD5" s="2">
+        <v>280.37</v>
+      </c>
       <c r="AE5" s="2">
-        <v>280.37</v>
-      </c>
-      <c r="AF5" s="2">
         <v>519.76</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AF5" s="3">
         <v>17622.560000000001</v>
       </c>
-      <c r="AH5" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="AG5" s="2"/>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:33">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B6" s="4">
         <v>43890</v>
@@ -1987,7 +1825,7 @@
         <v>2020</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F6" s="4">
         <v>43844</v>
@@ -2008,78 +1846,73 @@
         <v>43892</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T6" s="2">
+        <v>83</v>
+      </c>
+      <c r="S6" s="2">
         <v>2</v>
       </c>
+      <c r="T6" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="U6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
+      </c>
+      <c r="V6" s="2">
+        <v>732</v>
       </c>
       <c r="W6" s="2">
-        <v>732</v>
+        <v>6994</v>
       </c>
       <c r="X6" s="2">
-        <v>6994</v>
-      </c>
-      <c r="Y6" s="2">
         <v>0</v>
       </c>
+      <c r="Y6" s="3">
+        <v>18383.88</v>
+      </c>
       <c r="Z6" s="3">
+        <v>8339.7999999999993</v>
+      </c>
+      <c r="AA6" s="3">
         <v>18383.88</v>
       </c>
-      <c r="AA6" s="3">
-        <v>8339.7999999999993</v>
-      </c>
       <c r="AB6" s="3">
-        <v>18383.88</v>
+        <v>17213.580000000002</v>
       </c>
       <c r="AC6" s="3">
-        <v>17213.580000000002</v>
-      </c>
-      <c r="AD6" s="3">
         <v>10044.08</v>
       </c>
+      <c r="AD6" s="2">
+        <v>167.4</v>
+      </c>
       <c r="AE6" s="2">
-        <v>167.4</v>
-      </c>
-      <c r="AF6" s="2">
         <v>463.9</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AF6" s="3">
         <v>10675.38</v>
       </c>
-      <c r="AH6" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="AG6" s="2"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:33">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B7" s="4">
         <v>43903</v>
@@ -2091,7 +1924,7 @@
         <v>2020</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F7" s="4">
         <v>43851</v>
@@ -2112,78 +1945,73 @@
         <v>43904</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="T7" s="2">
+        <v>94</v>
+      </c>
+      <c r="S7" s="2">
         <v>2</v>
       </c>
+      <c r="T7" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="U7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="V7" s="2">
+        <v>614</v>
       </c>
       <c r="W7" s="2">
-        <v>614</v>
+        <v>5849</v>
       </c>
       <c r="X7" s="2">
         <v>5849</v>
       </c>
-      <c r="Y7" s="2">
-        <v>5849</v>
+      <c r="Y7" s="3">
+        <v>20609.89</v>
       </c>
       <c r="Z7" s="3">
+        <v>8667.0400000000009</v>
+      </c>
+      <c r="AA7" s="3">
         <v>20609.89</v>
       </c>
-      <c r="AA7" s="3">
-        <v>8667.0400000000009</v>
-      </c>
       <c r="AB7" s="3">
-        <v>20609.89</v>
+        <v>19459.86</v>
       </c>
       <c r="AC7" s="3">
-        <v>19459.86</v>
-      </c>
-      <c r="AD7" s="3">
         <v>11942.85</v>
       </c>
+      <c r="AD7" s="2">
+        <v>199.05</v>
+      </c>
       <c r="AE7" s="2">
-        <v>199.05</v>
-      </c>
-      <c r="AF7" s="2">
         <v>519.76</v>
       </c>
-      <c r="AG7" s="3">
+      <c r="AF7" s="3">
         <v>12661.66</v>
       </c>
-      <c r="AH7" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="AG7" s="2"/>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:33">
       <c r="A8" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B8" s="4">
         <v>43964</v>
@@ -2195,7 +2023,7 @@
         <v>2020</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F8" s="4">
         <v>43929</v>
@@ -2216,46 +2044,46 @@
         <v>43964</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="T8" s="2">
+        <v>105</v>
+      </c>
+      <c r="S8" s="2">
         <v>2</v>
       </c>
+      <c r="T8" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="U8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
+      </c>
+      <c r="V8" s="2">
+        <v>725</v>
       </c>
       <c r="W8" s="2">
-        <v>725</v>
+        <v>5854</v>
       </c>
       <c r="X8" s="2">
-        <v>5854</v>
-      </c>
-      <c r="Y8" s="2">
         <v>5530</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>7586.6</v>
       </c>
       <c r="Z8" s="3">
         <v>7586.6</v>
@@ -2264,30 +2092,25 @@
         <v>7586.6</v>
       </c>
       <c r="AB8" s="3">
-        <v>7586.6</v>
+        <v>6734.6</v>
       </c>
       <c r="AC8" s="3">
-        <v>6734.6</v>
-      </c>
-      <c r="AD8" s="3">
         <v>0</v>
       </c>
+      <c r="AD8" s="2">
+        <v>85.28</v>
+      </c>
       <c r="AE8" s="2">
-        <v>85.28</v>
-      </c>
-      <c r="AF8" s="2">
         <v>236.32</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AF8" s="3">
         <v>321.60000000000002</v>
       </c>
-      <c r="AH8" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="AG8" s="2"/>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:33">
       <c r="A9" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B9" s="4">
         <v>43971</v>
@@ -2299,7 +2122,7 @@
         <v>2020</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F9" s="4">
         <v>43933</v>
@@ -2320,46 +2143,46 @@
         <v>43971</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="T9" s="2">
+        <v>116</v>
+      </c>
+      <c r="S9" s="2">
         <v>1</v>
       </c>
+      <c r="T9" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="U9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
+      </c>
+      <c r="V9" s="2">
+        <v>404</v>
       </c>
       <c r="W9" s="2">
-        <v>404</v>
+        <v>3665.1</v>
       </c>
       <c r="X9" s="2">
         <v>3665.1</v>
       </c>
-      <c r="Y9" s="2">
-        <v>3665.1</v>
+      <c r="Y9" s="3">
+        <v>4197.24</v>
       </c>
       <c r="Z9" s="3">
         <v>4197.24</v>
@@ -2368,30 +2191,25 @@
         <v>4197.24</v>
       </c>
       <c r="AB9" s="3">
-        <v>4197.24</v>
+        <v>3712.14</v>
       </c>
       <c r="AC9" s="3">
-        <v>3712.14</v>
-      </c>
-      <c r="AD9" s="3">
         <v>0</v>
       </c>
+      <c r="AD9" s="2">
+        <v>85.45</v>
+      </c>
       <c r="AE9" s="2">
-        <v>85.45</v>
-      </c>
-      <c r="AF9" s="2">
         <v>236.79</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AF9" s="3">
         <v>322.24</v>
       </c>
-      <c r="AH9" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="AG9" s="2"/>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:33">
       <c r="A10" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B10" s="4">
         <v>43992</v>
@@ -2403,7 +2221,7 @@
         <v>2020</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="F10" s="4">
         <v>43947</v>
@@ -2424,46 +2242,46 @@
         <v>43992</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="T10" s="2">
+        <v>127</v>
+      </c>
+      <c r="S10" s="2">
         <v>1</v>
       </c>
+      <c r="T10" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="U10" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
+      </c>
+      <c r="V10" s="2">
+        <v>175</v>
       </c>
       <c r="W10" s="2">
-        <v>175</v>
+        <v>1385</v>
       </c>
       <c r="X10" s="2">
         <v>1385</v>
       </c>
-      <c r="Y10" s="2">
-        <v>1385</v>
+      <c r="Y10" s="3">
+        <v>3715.04</v>
       </c>
       <c r="Z10" s="3">
         <v>3715.04</v>
@@ -2472,30 +2290,25 @@
         <v>3715.04</v>
       </c>
       <c r="AB10" s="3">
-        <v>3715.04</v>
+        <v>3127.94</v>
       </c>
       <c r="AC10" s="3">
-        <v>3127.94</v>
-      </c>
-      <c r="AD10" s="3">
         <v>0</v>
       </c>
+      <c r="AD10" s="2">
+        <v>31.83</v>
+      </c>
       <c r="AE10" s="2">
-        <v>31.83</v>
-      </c>
-      <c r="AF10" s="2">
         <v>88.21</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AF10" s="3">
         <v>120.04</v>
       </c>
-      <c r="AH10" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="AG10" s="2"/>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:33">
       <c r="A11" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B11" s="4">
         <v>44013</v>
@@ -2507,7 +2320,7 @@
         <v>2020</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="F11" s="4">
         <v>43969</v>
@@ -2528,46 +2341,46 @@
         <v>44013</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="T11" s="2">
+        <v>138</v>
+      </c>
+      <c r="S11" s="2">
         <v>1</v>
       </c>
+      <c r="T11" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="U11" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
+      </c>
+      <c r="V11" s="2">
+        <v>452</v>
       </c>
       <c r="W11" s="2">
-        <v>452</v>
+        <v>3367</v>
       </c>
       <c r="X11" s="2">
         <v>3367</v>
       </c>
-      <c r="Y11" s="2">
-        <v>3367</v>
+      <c r="Y11" s="3">
+        <v>4145.13</v>
       </c>
       <c r="Z11" s="3">
         <v>4145.13</v>
@@ -2576,30 +2389,25 @@
         <v>4145.13</v>
       </c>
       <c r="AB11" s="3">
-        <v>4145.13</v>
+        <v>3574.53</v>
       </c>
       <c r="AC11" s="3">
-        <v>3574.53</v>
-      </c>
-      <c r="AD11" s="3">
         <v>0</v>
       </c>
+      <c r="AD11" s="2">
+        <v>67.650000000000006</v>
+      </c>
       <c r="AE11" s="2">
-        <v>67.650000000000006</v>
-      </c>
-      <c r="AF11" s="2">
         <v>187.48</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AF11" s="3">
         <v>255.13</v>
       </c>
-      <c r="AH11" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="AG11" s="2"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:33">
       <c r="A12" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B12" s="4">
         <v>44027</v>
@@ -2611,7 +2419,7 @@
         <v>2020</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="F12" s="4">
         <v>43989</v>
@@ -2632,46 +2440,46 @@
         <v>44028</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="T12" s="2">
+        <v>149</v>
+      </c>
+      <c r="S12" s="2">
         <v>1</v>
       </c>
+      <c r="T12" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="U12" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>174</v>
+        <v>151</v>
+      </c>
+      <c r="V12" s="2">
+        <v>369</v>
       </c>
       <c r="W12" s="2">
-        <v>369</v>
+        <v>3621</v>
       </c>
       <c r="X12" s="2">
         <v>3621</v>
       </c>
-      <c r="Y12" s="2">
-        <v>3621</v>
+      <c r="Y12" s="3">
+        <v>4280.38</v>
       </c>
       <c r="Z12" s="3">
         <v>4280.38</v>
@@ -2680,30 +2488,25 @@
         <v>4280.38</v>
       </c>
       <c r="AB12" s="3">
-        <v>4280.38</v>
+        <v>3898.28</v>
       </c>
       <c r="AC12" s="3">
-        <v>3898.28</v>
-      </c>
-      <c r="AD12" s="3">
         <v>0</v>
       </c>
+      <c r="AD12" s="2">
+        <v>83.63</v>
+      </c>
       <c r="AE12" s="2">
-        <v>83.63</v>
-      </c>
-      <c r="AF12" s="2">
         <v>231.75</v>
       </c>
-      <c r="AG12" s="3">
+      <c r="AF12" s="3">
         <v>315.38</v>
       </c>
-      <c r="AH12" s="2" t="s">
-        <v>175</v>
-      </c>
+      <c r="AG12" s="2"/>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:33">
       <c r="A13" s="2" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="B13" s="4">
         <v>44041</v>
@@ -2715,7 +2518,7 @@
         <v>2020</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="F13" s="4">
         <v>44003</v>
@@ -2736,46 +2539,46 @@
         <v>44041</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="T13" s="2">
+        <v>160</v>
+      </c>
+      <c r="S13" s="2">
         <v>1</v>
       </c>
+      <c r="T13" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="U13" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>187</v>
+        <v>162</v>
+      </c>
+      <c r="V13" s="2">
+        <v>165</v>
       </c>
       <c r="W13" s="2">
-        <v>165</v>
+        <v>1283</v>
       </c>
       <c r="X13" s="2">
         <v>1283</v>
       </c>
-      <c r="Y13" s="2">
-        <v>1283</v>
+      <c r="Y13" s="3">
+        <v>4303.05</v>
       </c>
       <c r="Z13" s="3">
         <v>4303.05</v>
@@ -2784,30 +2587,25 @@
         <v>4303.05</v>
       </c>
       <c r="AB13" s="3">
-        <v>4303.05</v>
+        <v>3830.95</v>
       </c>
       <c r="AC13" s="3">
-        <v>3830.95</v>
-      </c>
-      <c r="AD13" s="3">
         <v>0</v>
       </c>
+      <c r="AD13" s="2">
+        <v>29.98</v>
+      </c>
       <c r="AE13" s="2">
-        <v>29.98</v>
-      </c>
-      <c r="AF13" s="2">
         <v>83.07</v>
       </c>
-      <c r="AG13" s="3">
+      <c r="AF13" s="3">
         <v>113.05</v>
       </c>
-      <c r="AH13" s="2" t="s">
-        <v>188</v>
-      </c>
+      <c r="AG13" s="2"/>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:33">
       <c r="A14" s="2" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="B14" s="4">
         <v>44055</v>
@@ -2819,7 +2617,7 @@
         <v>2020</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="F14" s="4">
         <v>44019</v>
@@ -2840,46 +2638,46 @@
         <v>44055</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="T14" s="2">
+        <v>171</v>
+      </c>
+      <c r="S14" s="2">
         <v>2</v>
       </c>
+      <c r="T14" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="U14" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>200</v>
+        <v>173</v>
+      </c>
+      <c r="V14" s="2">
+        <v>722</v>
       </c>
       <c r="W14" s="2">
-        <v>722</v>
+        <v>7500</v>
       </c>
       <c r="X14" s="2">
         <v>7500</v>
       </c>
-      <c r="Y14" s="2">
-        <v>7500</v>
+      <c r="Y14" s="3">
+        <v>9535.89</v>
       </c>
       <c r="Z14" s="3">
         <v>9535.89</v>
@@ -2888,30 +2686,25 @@
         <v>9535.89</v>
       </c>
       <c r="AB14" s="3">
-        <v>9535.89</v>
+        <v>8731.69</v>
       </c>
       <c r="AC14" s="3">
-        <v>8731.69</v>
-      </c>
-      <c r="AD14" s="3">
         <v>0</v>
       </c>
+      <c r="AD14" s="2">
+        <v>201.13</v>
+      </c>
       <c r="AE14" s="2">
-        <v>201.13</v>
-      </c>
-      <c r="AF14" s="2">
         <v>519.76</v>
       </c>
-      <c r="AG14" s="3">
+      <c r="AF14" s="3">
         <v>720.89</v>
       </c>
-      <c r="AH14" s="2" t="s">
-        <v>201</v>
-      </c>
+      <c r="AG14" s="2"/>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:33">
       <c r="A15" s="2" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="B15" s="4">
         <v>44055</v>
@@ -2923,7 +2716,7 @@
         <v>2020</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="F15" s="4">
         <v>44017</v>
@@ -2944,46 +2737,46 @@
         <v>44055</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="T15" s="2">
+        <v>182</v>
+      </c>
+      <c r="S15" s="2">
         <v>1</v>
       </c>
+      <c r="T15" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="U15" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>213</v>
+        <v>184</v>
+      </c>
+      <c r="V15" s="2">
+        <v>348</v>
       </c>
       <c r="W15" s="2">
-        <v>348</v>
+        <v>3046.5</v>
       </c>
       <c r="X15" s="2">
         <v>3046.5</v>
       </c>
-      <c r="Y15" s="2">
-        <v>3046.5</v>
+      <c r="Y15" s="3">
+        <v>4786.1099999999997</v>
       </c>
       <c r="Z15" s="3">
         <v>4786.1099999999997</v>
@@ -2992,30 +2785,25 @@
         <v>4786.1099999999997</v>
       </c>
       <c r="AB15" s="3">
-        <v>4786.1099999999997</v>
+        <v>4374.01</v>
       </c>
       <c r="AC15" s="3">
-        <v>4374.01</v>
-      </c>
-      <c r="AD15" s="3">
         <v>0</v>
       </c>
+      <c r="AD15" s="2">
+        <v>58.63</v>
+      </c>
       <c r="AE15" s="2">
-        <v>58.63</v>
-      </c>
-      <c r="AF15" s="2">
         <v>162.47999999999999</v>
       </c>
-      <c r="AG15" s="3">
+      <c r="AF15" s="3">
         <v>221.11</v>
       </c>
-      <c r="AH15" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="AG15" s="2"/>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:33">
       <c r="A16" s="2" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="B16" s="4">
         <v>44100</v>
@@ -3027,7 +2815,7 @@
         <v>2020</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="F16" s="4">
         <v>44048</v>
@@ -3048,78 +2836,73 @@
         <v>44100</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="T16" s="2">
+        <v>193</v>
+      </c>
+      <c r="S16" s="2">
         <v>1</v>
       </c>
+      <c r="T16" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="U16" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>226</v>
+        <v>195</v>
+      </c>
+      <c r="V16" s="2">
+        <v>343</v>
       </c>
       <c r="W16" s="2">
-        <v>343</v>
+        <v>3639</v>
       </c>
       <c r="X16" s="2">
         <v>3639</v>
       </c>
-      <c r="Y16" s="2">
-        <v>3639</v>
+      <c r="Y16" s="3">
+        <v>9405.08</v>
       </c>
       <c r="Z16" s="3">
+        <v>4972.8</v>
+      </c>
+      <c r="AA16" s="3">
         <v>9405.08</v>
       </c>
-      <c r="AA16" s="3">
-        <v>4972.8</v>
-      </c>
       <c r="AB16" s="3">
-        <v>9405.08</v>
+        <v>8743.76</v>
       </c>
       <c r="AC16" s="3">
-        <v>8743.76</v>
-      </c>
-      <c r="AD16" s="3">
         <v>4432.28</v>
       </c>
+      <c r="AD16" s="2">
+        <v>73.87</v>
+      </c>
       <c r="AE16" s="2">
-        <v>73.87</v>
-      </c>
-      <c r="AF16" s="2">
         <v>204.71</v>
       </c>
-      <c r="AG16" s="3">
+      <c r="AF16" s="3">
         <v>4710.8599999999997</v>
       </c>
-      <c r="AH16" s="2" t="s">
-        <v>227</v>
-      </c>
+      <c r="AG16" s="2"/>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:33">
       <c r="A17" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="B17" s="4">
         <v>44100</v>
@@ -3131,7 +2914,7 @@
         <v>2020</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="F17" s="4">
         <v>44059</v>
@@ -3152,78 +2935,73 @@
         <v>44100</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="T17" s="2">
+        <v>204</v>
+      </c>
+      <c r="S17" s="2">
         <v>1</v>
       </c>
+      <c r="T17" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="U17" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>239</v>
+        <v>206</v>
+      </c>
+      <c r="V17" s="2">
+        <v>403</v>
       </c>
       <c r="W17" s="2">
-        <v>403</v>
+        <v>3245</v>
       </c>
       <c r="X17" s="2">
         <v>3245</v>
       </c>
-      <c r="Y17" s="2">
-        <v>3245</v>
+      <c r="Y17" s="3">
+        <v>9400.1</v>
       </c>
       <c r="Z17" s="3">
+        <v>4945.0200000000004</v>
+      </c>
+      <c r="AA17" s="3">
         <v>9400.1</v>
       </c>
-      <c r="AA17" s="3">
-        <v>4945.0200000000004</v>
-      </c>
       <c r="AB17" s="3">
-        <v>9400.1</v>
+        <v>8928</v>
       </c>
       <c r="AC17" s="3">
-        <v>8928</v>
-      </c>
-      <c r="AD17" s="3">
         <v>4455.08</v>
       </c>
+      <c r="AD17" s="2">
+        <v>74.25</v>
+      </c>
       <c r="AE17" s="2">
-        <v>74.25</v>
-      </c>
-      <c r="AF17" s="2">
         <v>205.77</v>
       </c>
-      <c r="AG17" s="3">
+      <c r="AF17" s="3">
         <v>4735.1000000000004</v>
       </c>
-      <c r="AH17" s="2" t="s">
-        <v>240</v>
-      </c>
+      <c r="AG17" s="2"/>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:33">
       <c r="A18" s="2" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="B18" s="4">
         <v>44086</v>
@@ -3235,7 +3013,7 @@
         <v>2020</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="F18" s="4">
         <v>44054</v>
@@ -3256,46 +3034,46 @@
         <v>44086</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="T18" s="2">
+        <v>215</v>
+      </c>
+      <c r="S18" s="2">
         <v>1</v>
       </c>
+      <c r="T18" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="U18" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>252</v>
+        <v>217</v>
+      </c>
+      <c r="V18" s="2">
+        <v>334</v>
       </c>
       <c r="W18" s="2">
-        <v>334</v>
+        <v>3084</v>
       </c>
       <c r="X18" s="2">
         <v>3084</v>
       </c>
-      <c r="Y18" s="2">
-        <v>3084</v>
+      <c r="Y18" s="3">
+        <v>6584.38</v>
       </c>
       <c r="Z18" s="3">
         <v>6584.38</v>
@@ -3304,30 +3082,25 @@
         <v>6584.38</v>
       </c>
       <c r="AB18" s="3">
-        <v>6584.38</v>
+        <v>6005.86</v>
       </c>
       <c r="AC18" s="3">
-        <v>6005.86</v>
-      </c>
-      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="2">
         <v>0</v>
       </c>
       <c r="AE18" s="2">
         <v>0</v>
       </c>
-      <c r="AF18" s="2">
+      <c r="AF18" s="3">
         <v>0</v>
       </c>
-      <c r="AG18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>253</v>
-      </c>
+      <c r="AG18" s="2"/>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:33">
       <c r="A19" s="2" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="B19" s="4">
         <v>44133</v>
@@ -3339,7 +3112,7 @@
         <v>2020</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="F19" s="4">
         <v>44083</v>
@@ -3360,78 +3133,73 @@
         <v>44133</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="T19" s="2">
+        <v>226</v>
+      </c>
+      <c r="S19" s="2">
         <v>1</v>
       </c>
+      <c r="T19" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="U19" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>265</v>
+        <v>228</v>
+      </c>
+      <c r="V19" s="2">
+        <v>377</v>
       </c>
       <c r="W19" s="2">
-        <v>377</v>
+        <v>3672</v>
       </c>
       <c r="X19" s="2">
         <v>3672</v>
       </c>
-      <c r="Y19" s="2">
-        <v>3672</v>
+      <c r="Y19" s="3">
+        <v>10177.620000000001</v>
       </c>
       <c r="Z19" s="3">
+        <v>6049.47</v>
+      </c>
+      <c r="AA19" s="3">
         <v>10177.620000000001</v>
       </c>
-      <c r="AA19" s="3">
-        <v>6049.47</v>
-      </c>
       <c r="AB19" s="3">
-        <v>10177.620000000001</v>
+        <v>9754.27</v>
       </c>
       <c r="AC19" s="3">
-        <v>9754.27</v>
-      </c>
-      <c r="AD19" s="3">
         <v>4128.1499999999996</v>
       </c>
+      <c r="AD19" s="2">
+        <v>68.8</v>
+      </c>
       <c r="AE19" s="2">
-        <v>68.8</v>
-      </c>
-      <c r="AF19" s="2">
         <v>190.67</v>
       </c>
-      <c r="AG19" s="3">
+      <c r="AF19" s="3">
         <v>4387.62</v>
       </c>
-      <c r="AH19" s="2" t="s">
-        <v>266</v>
-      </c>
+      <c r="AG19" s="2"/>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:33">
       <c r="A20" s="2" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="B20" s="4">
         <v>44132</v>
@@ -3443,7 +3211,7 @@
         <v>2020</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="F20" s="4">
         <v>44097</v>
@@ -3464,78 +3232,73 @@
         <v>44135</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="T20" s="2">
+        <v>237</v>
+      </c>
+      <c r="S20" s="2">
         <v>3</v>
       </c>
+      <c r="T20" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="U20" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>278</v>
+        <v>239</v>
+      </c>
+      <c r="V20" s="2">
+        <v>1099</v>
       </c>
       <c r="W20" s="2">
-        <v>1099</v>
+        <v>10192</v>
       </c>
       <c r="X20" s="2">
         <v>10192</v>
       </c>
-      <c r="Y20" s="2">
-        <v>10192</v>
+      <c r="Y20" s="3">
+        <v>30557.1</v>
       </c>
       <c r="Z20" s="3">
+        <v>18011.919999999998</v>
+      </c>
+      <c r="AA20" s="3">
         <v>30557.1</v>
       </c>
-      <c r="AA20" s="3">
-        <v>18011.919999999998</v>
-      </c>
       <c r="AB20" s="3">
-        <v>30557.1</v>
+        <v>29462.65</v>
       </c>
       <c r="AC20" s="3">
-        <v>29462.65</v>
-      </c>
-      <c r="AD20" s="3">
         <v>12545.18</v>
       </c>
+      <c r="AD20" s="2">
+        <v>209.09</v>
+      </c>
       <c r="AE20" s="2">
-        <v>209.09</v>
-      </c>
-      <c r="AF20" s="2">
         <v>528.33000000000004</v>
       </c>
-      <c r="AG20" s="3">
+      <c r="AF20" s="3">
         <v>13282.6</v>
       </c>
-      <c r="AH20" s="2" t="s">
-        <v>279</v>
-      </c>
+      <c r="AG20" s="2"/>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:33">
       <c r="A21" s="2" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="B21" s="4">
         <v>44127</v>
@@ -3547,7 +3310,7 @@
         <v>2020</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="F21" s="4">
         <v>44113</v>
@@ -3568,78 +3331,73 @@
         <v>44127</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="T21" s="2">
+        <v>248</v>
+      </c>
+      <c r="S21" s="2">
         <v>1</v>
       </c>
+      <c r="T21" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="U21" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>291</v>
+        <v>250</v>
+      </c>
+      <c r="V21" s="2">
+        <v>148</v>
       </c>
       <c r="W21" s="2">
-        <v>148</v>
+        <v>1489</v>
       </c>
       <c r="X21" s="2">
         <v>1489</v>
       </c>
-      <c r="Y21" s="2">
-        <v>1489</v>
+      <c r="Y21" s="3">
+        <v>5179.47</v>
       </c>
       <c r="Z21" s="3">
+        <v>3598.02</v>
+      </c>
+      <c r="AA21" s="3">
         <v>5179.47</v>
       </c>
-      <c r="AA21" s="3">
-        <v>3598.02</v>
-      </c>
       <c r="AB21" s="3">
-        <v>5179.47</v>
+        <v>4887.05</v>
       </c>
       <c r="AC21" s="3">
-        <v>4887.05</v>
-      </c>
-      <c r="AD21" s="3">
         <v>1581.45</v>
       </c>
+      <c r="AD21" s="2">
+        <v>26.36</v>
+      </c>
       <c r="AE21" s="2">
-        <v>26.36</v>
-      </c>
-      <c r="AF21" s="2">
         <v>73.040000000000006</v>
       </c>
-      <c r="AG21" s="3">
+      <c r="AF21" s="3">
         <v>1680.85</v>
       </c>
-      <c r="AH21" s="2" t="s">
-        <v>292</v>
-      </c>
+      <c r="AG21" s="2"/>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:33">
       <c r="A22" s="2" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="B22" s="4">
         <v>43902</v>
@@ -3651,7 +3409,7 @@
         <v>2020</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="F22" s="4">
         <v>43896</v>
@@ -3668,37 +3426,37 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="2" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="T22" s="2">
+        <v>259</v>
+      </c>
+      <c r="S22" s="2">
         <v>0</v>
       </c>
+      <c r="T22" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="U22" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>304</v>
+        <v>261</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
       </c>
       <c r="W22" s="2">
         <v>0</v>
@@ -3706,40 +3464,35 @@
       <c r="X22" s="2">
         <v>0</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="Y22" s="3">
+        <v>439.14</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>206.79</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>439.14</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>259.14</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>232.35</v>
+      </c>
+      <c r="AD22" s="2">
         <v>0</v>
       </c>
-      <c r="Z22" s="3">
-        <v>439.14</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>206.79</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>439.14</v>
-      </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="2">
+        <v>26.79</v>
+      </c>
+      <c r="AF22" s="3">
         <v>259.14</v>
       </c>
-      <c r="AD22" s="3">
-        <v>232.35</v>
-      </c>
-      <c r="AE22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="2">
-        <v>26.79</v>
-      </c>
-      <c r="AG22" s="3">
-        <v>259.14</v>
-      </c>
-      <c r="AH22" s="2" t="s">
-        <v>305</v>
-      </c>
+      <c r="AG22" s="2"/>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:33">
       <c r="A23" s="2" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="B23" s="4">
         <v>44068</v>
@@ -3751,7 +3504,7 @@
         <v>2020</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="F23" s="4">
         <v>44052</v>
@@ -3768,46 +3521,46 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="2" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="T23" s="2">
+        <v>270</v>
+      </c>
+      <c r="S23" s="2">
         <v>1</v>
       </c>
+      <c r="T23" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="U23" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>317</v>
+        <v>272</v>
+      </c>
+      <c r="V23" s="2">
+        <v>8</v>
       </c>
       <c r="W23" s="2">
-        <v>8</v>
+        <v>867</v>
       </c>
       <c r="X23" s="2">
-        <v>867</v>
-      </c>
-      <c r="Y23" s="2">
         <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>1697.97</v>
       </c>
       <c r="Z23" s="3">
         <v>1697.97</v>
@@ -3816,31 +3569,26 @@
         <v>1697.97</v>
       </c>
       <c r="AB23" s="3">
-        <v>1697.97</v>
+        <v>1286.8499999999999</v>
       </c>
       <c r="AC23" s="3">
-        <v>1286.8499999999999</v>
-      </c>
-      <c r="AD23" s="3">
         <v>0</v>
       </c>
+      <c r="AD23" s="2">
+        <v>11.79</v>
+      </c>
       <c r="AE23" s="2">
-        <v>11.79</v>
-      </c>
-      <c r="AF23" s="2">
         <v>32.67</v>
       </c>
-      <c r="AG23" s="3">
+      <c r="AF23" s="3">
         <v>44.46</v>
       </c>
-      <c r="AH23" s="2" t="s">
-        <v>318</v>
-      </c>
+      <c r="AG23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2 A22 Q22 S22 A23 S23" numberStoredAsText="1"/>
+    <ignoredError sqref="A2 A22 P22 R22 A23 R23" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>